--- a/normalizacion.xlsx
+++ b/normalizacion.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anass\final\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1daw3\Anass\Final\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A895F52-27EF-48E5-B622-1FB21BE50665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="1800" windowWidth="18000" windowHeight="9360" xr2:uid="{AF89A26B-4DE9-49B3-BFC0-CED50BE5BBDE}"/>
+    <workbookView xWindow="6000" yWindow="1800" windowWidth="18000" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Nino</t>
   </si>
@@ -53,9 +52,6 @@
     <t>Edad</t>
   </si>
   <si>
-    <t>Responsable</t>
-  </si>
-  <si>
     <t>Direccion</t>
   </si>
   <si>
@@ -92,15 +88,9 @@
     <t>EdadMax</t>
   </si>
   <si>
-    <t>Booking</t>
-  </si>
-  <si>
     <t>DNI-nino</t>
   </si>
   <si>
-    <t>DNI-Responsable</t>
-  </si>
-  <si>
     <t>CampamentoID</t>
   </si>
   <si>
@@ -116,9 +106,6 @@
     <t>Actividad</t>
   </si>
   <si>
-    <t>Nomnbre</t>
-  </si>
-  <si>
     <t>tipo</t>
   </si>
   <si>
@@ -126,12 +113,30 @@
   </si>
   <si>
     <t>NombreAct</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Reserva</t>
+  </si>
+  <si>
+    <t>IDCamp</t>
+  </si>
+  <si>
+    <t>NombAct</t>
+  </si>
+  <si>
+    <t>DNI-Usuario</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,12 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,11 +518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5909C426-3938-48E5-8700-FE2008F071DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +560,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -573,23 +579,25 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -602,10 +610,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -613,7 +627,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -625,88 +639,92 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/normalizacion.xlsx
+++ b/normalizacion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1daw3\Anass\Final\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anass\Final\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD36BB0A-22D0-4A6E-A6A1-C09BFDFEAA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="1800" windowWidth="18000" windowHeight="9360"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -136,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,13 +191,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,6 +632,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -662,6 +659,7 @@
       <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -687,39 +685,41 @@
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I17" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>

--- a/normalizacion.xlsx
+++ b/normalizacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anass\Final\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anass\final\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD36BB0A-22D0-4A6E-A6A1-C09BFDFEAA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D435F5-1121-4A4B-A15D-453477C1CF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Nino</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Apellido</t>
   </si>
   <si>
-    <t>direccion</t>
-  </si>
-  <si>
     <t>Edad</t>
   </si>
   <si>
-    <t>Direccion</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -63,15 +57,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>lugar</t>
-  </si>
-  <si>
-    <t>FechaInicio</t>
-  </si>
-  <si>
-    <t>FechaFin</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -117,13 +102,28 @@
     <t>IDCamp</t>
   </si>
   <si>
-    <t>NombAct</t>
-  </si>
-  <si>
-    <t>DNI-Usuario</t>
-  </si>
-  <si>
     <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Contrasena</t>
+  </si>
+  <si>
+    <t>Nombre-Act</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>Fecha-Ini</t>
+  </si>
+  <si>
+    <t>Fecha-Fin</t>
+  </si>
+  <si>
+    <t>CampTipo</t>
+  </si>
+  <si>
+    <t>email-Usuario</t>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -199,8 +199,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,12 +553,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -566,34 +568,34 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -609,21 +611,19 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -632,67 +632,61 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="8"/>
+      <c r="A17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -703,28 +697,47 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/normalizacion.xlsx
+++ b/normalizacion.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anass\Final\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1daw3\Final\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD36BB0A-22D0-4A6E-A6A1-C09BFDFEAA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Nino</t>
   </si>
@@ -39,15 +38,9 @@
     <t>Apellido</t>
   </si>
   <si>
-    <t>direccion</t>
-  </si>
-  <si>
     <t>Edad</t>
   </si>
   <si>
-    <t>Direccion</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -63,9 +56,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>lugar</t>
-  </si>
-  <si>
     <t>FechaInicio</t>
   </si>
   <si>
@@ -87,9 +77,6 @@
     <t>CampamentoID</t>
   </si>
   <si>
-    <t>CampIdiolma</t>
-  </si>
-  <si>
     <t>Idcamp</t>
   </si>
   <si>
@@ -99,9 +86,6 @@
     <t>Actividad</t>
   </si>
   <si>
-    <t>tipo</t>
-  </si>
-  <si>
     <t>Camp-Act</t>
   </si>
   <si>
@@ -120,16 +104,34 @@
     <t>NombAct</t>
   </si>
   <si>
-    <t>DNI-Usuario</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Email-Usuario</t>
+  </si>
+  <si>
+    <t>TipoCampamento</t>
+  </si>
+  <si>
+    <t>CampIdioma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,8 +201,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,16 +516,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
@@ -551,12 +553,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -565,35 +567,35 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -608,14 +610,11 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -623,7 +622,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -636,7 +635,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
@@ -644,87 +643,95 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="I17" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>26</v>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
